--- a/xml工具核对_0113.xlsx
+++ b/xml工具核对_0113.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="28998" windowHeight="15798"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="28998" windowHeight="15798" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="网上购物类" sheetId="1" r:id="rId1"/>
@@ -693,7 +693,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,6 +708,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,7 +736,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -762,6 +768,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1046,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1060,7 +1072,7 @@
     <col min="8" max="8" width="19.05078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2">
+    <row r="1" spans="1:8" ht="16.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1077,7 +1089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2">
+    <row r="2" spans="1:8" ht="43.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1095,8 +1107,9 @@
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1114,8 +1127,9 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1133,8 +1147,9 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1154,7 +1169,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1172,8 +1187,9 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" ht="43.2">
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" ht="43.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1191,8 +1207,9 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1212,7 +1229,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1230,7 +1247,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="28.8">
+    <row r="10" spans="1:8" ht="28.8">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1248,7 +1265,7 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1266,7 +1283,7 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="F12">
         <v>8</v>
       </c>
@@ -1292,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1303,12 +1320,13 @@
     <col min="2" max="2" width="15.7890625" customWidth="1"/>
     <col min="3" max="3" width="60.7890625" customWidth="1"/>
     <col min="4" max="4" width="12.68359375" customWidth="1"/>
-    <col min="6" max="6" width="48.5234375" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5234375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="17.3125" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2">
+    <row r="1" spans="1:9" ht="16.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1328,7 +1346,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1349,8 +1367,9 @@
         <v>139</v>
       </c>
       <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1370,7 +1389,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8">
+    <row r="4" spans="1:9" ht="28.8">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1393,7 +1412,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1415,7 +1434,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1437,7 +1456,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1457,7 +1476,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1478,8 +1497,9 @@
         <v>138</v>
       </c>
       <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1500,8 +1520,9 @@
         <v>138</v>
       </c>
       <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1522,8 +1543,9 @@
         <v>140</v>
       </c>
       <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1544,8 +1566,9 @@
         <v>138</v>
       </c>
       <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="H12">
         <v>7</v>
       </c>
@@ -1571,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1585,7 +1608,7 @@
     <col min="6" max="6" width="26.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2">
+    <row r="1" spans="1:8" ht="16.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1605,7 +1628,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1625,8 +1648,9 @@
         <v>113</v>
       </c>
       <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1644,8 +1668,9 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" ht="28.8">
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.8">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1663,8 +1688,9 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.3">
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1683,8 +1709,9 @@
       <c r="G5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1704,8 +1731,9 @@
         <v>119</v>
       </c>
       <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1719,8 +1747,9 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1735,7 +1764,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1750,7 +1779,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="15.3">
+    <row r="10" spans="1:8" ht="15.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1764,7 +1793,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.3">
+    <row r="11" spans="1:8" ht="15.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1778,7 +1807,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="G12">
         <v>7</v>
       </c>
@@ -1807,7 +1836,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/xml工具核对_0113.xlsx
+++ b/xml工具核对_0113.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="28998" windowHeight="15798" activeTab="1"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="28998" windowHeight="15798" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="网上购物类" sheetId="1" r:id="rId1"/>
@@ -1311,7 +1311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1596,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1709,7 +1709,7 @@
       <c r="G5" t="s">
         <v>153</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8">
@@ -1747,7 +1747,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="12"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8">
